--- a/portfolio/allocation/60:40 Portfolio.xlsx
+++ b/portfolio/allocation/60:40 Portfolio.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/60:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD442BF-6198-9E4F-B5A5-29E326BDC3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC976B5-FEB7-4247-9B2A-42254DFB8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
-    <sheet name="allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,11 +800,11 @@
         <v>8</v>
       </c>
       <c r="J8" s="4">
-        <f>SUMIF(C:C,I8,F:F)</f>
+        <f t="shared" ref="J8:J13" si="0">SUMIF(C:C,I8,F:F)</f>
         <v>630000</v>
       </c>
       <c r="K8" s="3">
-        <f>J8/$J$14</f>
+        <f t="shared" ref="K8:K14" si="1">J8/$J$14</f>
         <v>8.9285714285714288E-2</v>
       </c>
     </row>
@@ -834,11 +834,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f>SUMIF(C:C,I9,F:F)</f>
+        <f t="shared" si="0"/>
         <v>1175000</v>
       </c>
       <c r="K9" s="3">
-        <f>J9/$J$14</f>
+        <f t="shared" si="1"/>
         <v>0.16652494331065759</v>
       </c>
     </row>
@@ -868,11 +868,11 @@
         <v>9</v>
       </c>
       <c r="J10" s="4">
-        <f>SUMIF(C:C,I10,F:F)</f>
+        <f t="shared" si="0"/>
         <v>1680000</v>
       </c>
       <c r="K10" s="3">
-        <f>J10/$J$14</f>
+        <f t="shared" si="1"/>
         <v>0.23809523809523808</v>
       </c>
     </row>
@@ -902,11 +902,11 @@
         <v>24</v>
       </c>
       <c r="J11" s="4">
-        <f>SUMIF(C:C,I11,F:F)</f>
+        <f t="shared" si="0"/>
         <v>751000</v>
       </c>
       <c r="K11" s="3">
-        <f>J11/$J$14</f>
+        <f t="shared" si="1"/>
         <v>0.10643424036281179</v>
       </c>
     </row>
@@ -936,11 +936,11 @@
         <v>36</v>
       </c>
       <c r="J12" s="4">
-        <f>SUMIF(C:C,I12,F:F)</f>
+        <f t="shared" si="0"/>
         <v>2050000</v>
       </c>
       <c r="K12" s="3">
-        <f>J12/$J$14</f>
+        <f t="shared" si="1"/>
         <v>0.2905328798185941</v>
       </c>
     </row>
@@ -949,11 +949,11 @@
         <v>37</v>
       </c>
       <c r="J13" s="4">
-        <f>SUMIF(C:C,I13,F:F)</f>
+        <f t="shared" si="0"/>
         <v>770000</v>
       </c>
       <c r="K13" s="3">
-        <f>J13/$J$14</f>
+        <f t="shared" si="1"/>
         <v>0.10912698412698413</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>7056000</v>
       </c>
       <c r="K14" s="3">
-        <f>J14/$J$14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -986,11 +986,11 @@
         <v>17</v>
       </c>
       <c r="J17" s="4">
-        <f>SUMIF(D:D,I17,F:F)</f>
+        <f t="shared" ref="J17:J25" si="2">SUMIF(D:D,I17,F:F)</f>
         <v>630000</v>
       </c>
       <c r="K17" s="3">
-        <f>J17/$J$26</f>
+        <f t="shared" ref="K17:K26" si="3">J17/$J$26</f>
         <v>8.9285714285714288E-2</v>
       </c>
     </row>
@@ -999,11 +999,11 @@
         <v>18</v>
       </c>
       <c r="J18" s="4">
-        <f>SUMIF(D:D,I18,F:F)</f>
+        <f t="shared" si="2"/>
         <v>992000</v>
       </c>
       <c r="K18" s="3">
-        <f>J18/$J$26</f>
+        <f t="shared" si="3"/>
         <v>0.14058956916099774</v>
       </c>
     </row>
@@ -1012,11 +1012,11 @@
         <v>20</v>
       </c>
       <c r="J19" s="4">
-        <f>SUMIF(D:D,I19,F:F)</f>
+        <f t="shared" si="2"/>
         <v>380000</v>
       </c>
       <c r="K19" s="3">
-        <f>J19/$J$26</f>
+        <f t="shared" si="3"/>
         <v>5.3854875283446714E-2</v>
       </c>
     </row>
@@ -1025,11 +1025,11 @@
         <v>21</v>
       </c>
       <c r="J20" s="4">
-        <f>SUMIF(D:D,I20,F:F)</f>
+        <f t="shared" si="2"/>
         <v>429000</v>
       </c>
       <c r="K20" s="3">
-        <f>J20/$J$26</f>
+        <f t="shared" si="3"/>
         <v>6.0799319727891155E-2</v>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
         <v>19</v>
       </c>
       <c r="J21" s="4">
-        <f>SUMIF(D:D,I21,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1300000</v>
       </c>
       <c r="K21" s="3">
-        <f>J21/$J$26</f>
+        <f t="shared" si="3"/>
         <v>0.18424036281179137</v>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         <v>25</v>
       </c>
       <c r="J22" s="4">
-        <f>SUMIF(D:D,I22,F:F)</f>
+        <f t="shared" si="2"/>
         <v>505000</v>
       </c>
       <c r="K22" s="3">
-        <f>J22/$J$26</f>
+        <f t="shared" si="3"/>
         <v>7.1570294784580504E-2</v>
       </c>
     </row>
@@ -1064,11 +1064,11 @@
         <v>31</v>
       </c>
       <c r="J23" s="4">
-        <f>SUMIF(D:D,I23,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1050000</v>
       </c>
       <c r="K23" s="3">
-        <f>J23/$J$26</f>
+        <f t="shared" si="3"/>
         <v>0.14880952380952381</v>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         <v>33</v>
       </c>
       <c r="J24" s="4">
-        <f>SUMIF(D:D,I24,F:F)</f>
+        <f t="shared" si="2"/>
         <v>770000</v>
       </c>
       <c r="K24" s="3">
-        <f>J24/$J$26</f>
+        <f t="shared" si="3"/>
         <v>0.10912698412698413</v>
       </c>
     </row>
@@ -1090,11 +1090,11 @@
         <v>35</v>
       </c>
       <c r="J25" s="4">
-        <f>SUMIF(D:D,I25,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="K25" s="3">
-        <f>J25/$J$26</f>
+        <f t="shared" si="3"/>
         <v>0.14172335600907029</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>7056000</v>
       </c>
       <c r="K26" s="3">
-        <f>J26/$J$26</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
